--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/123/word_level_predictions_123.xlsx
@@ -866,312 +866,312 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Disabled</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Landing</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="I12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>gear</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="I13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>8</v>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>lowered</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Disabled</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>9</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Landing</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>10</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>gear</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>11</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>lowered</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>12</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1386,676 +1386,676 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="A19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
         <is>
           <t>Propeller</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="D19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="inlineStr">
+      <c r="G19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="I19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>rotating</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="I20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>rotating</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>too</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="I21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="inlineStr">
+      <c r="I22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>too</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>resistance</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="I24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>affected</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="I25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>fast</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>3</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>Return</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Wind</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>4</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>resistance</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>5</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K24" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>affected</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>6</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Return</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>7</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>land</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>8</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>9</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K28" t="b">
-        <v>1</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>10</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K29" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>1</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>land</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>11</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K30" t="b">
-        <v>1</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>promptly</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K31" t="b">
-        <v>1</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G77" s="2" t="b">
@@ -4477,7 +4477,7 @@
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G78" s="2" t="b">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="F100" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G100" s="2" t="b">
@@ -5645,7 +5645,7 @@
       </c>
       <c r="L100" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="F101" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G101" s="2" t="b">
@@ -5697,7 +5697,7 @@
       </c>
       <c r="L101" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6170,1092 +6170,1092 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
+      <c r="A111" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C111" s="2" t="inlineStr">
         <is>
           <t>Motor</t>
         </is>
       </c>
-      <c r="D111" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" t="inlineStr">
+      <c r="D111" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="F111" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G111" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" t="inlineStr">
+      <c r="G111" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I111" t="b">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr">
+      <c r="I111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L111" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F112" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G112" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K111" t="b">
-        <v>1</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
+      <c r="I112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L112" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B113" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>speed</t>
-        </is>
-      </c>
-      <c r="D112" t="n">
-        <v>1</v>
-      </c>
-      <c r="E112" t="inlineStr">
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E113" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F113" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G113" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H113" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I113" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J113" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K113" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L113" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>Land</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E114" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F114" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G114" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H114" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I114" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J114" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K114" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L114" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B115" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C115" s="2" t="inlineStr">
+        <is>
+          <t>or</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E115" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F115" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G112" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" t="b">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K112" t="b">
-        <v>1</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
+      <c r="G115" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L115" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B116" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D113" t="n">
-        <v>2</v>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G113" t="b">
-        <v>1</v>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I113" t="b">
-        <v>1</v>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K113" t="b">
-        <v>1</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>return</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="E116" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F116" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G116" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L116" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Land</t>
-        </is>
-      </c>
-      <c r="D114" t="n">
-        <v>3</v>
-      </c>
-      <c r="E114" t="inlineStr">
+      <c r="C117" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E117" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F117" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G117" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I117" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J117" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K117" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L117" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E118" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G118" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J118" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L118" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B119" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C119" s="2" t="inlineStr">
+        <is>
+          <t>promptly</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E119" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F119" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G119" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L119" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>After</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E120" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="F120" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G114" t="b">
-        <v>1</v>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I114" t="b">
-        <v>1</v>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K114" t="b">
-        <v>1</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
+      <c r="G120" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L120" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B121" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>or</t>
-        </is>
-      </c>
-      <c r="D115" t="n">
-        <v>4</v>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G115" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I115" t="b">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K115" t="b">
-        <v>1</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>powering</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B122" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>return</t>
-        </is>
-      </c>
-      <c r="D116" t="n">
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L122" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G116" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I116" t="b">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K116" t="b">
-        <v>1</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B124" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D117" t="n">
-        <v>6</v>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G117" t="b">
-        <v>1</v>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I117" t="b">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K117" t="b">
-        <v>1</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>aircraft,</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B125" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
-        <v>7</v>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G118" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I118" t="b">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K118" t="b">
-        <v>1</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
+      <c r="C125" s="2" t="inlineStr">
+        <is>
+          <t>replace</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B126" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>promptly</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
-        <v>8</v>
-      </c>
-      <c r="E119" t="inlineStr">
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J126" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L126" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="inlineStr">
+        <is>
+          <t>propeller</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E127" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F127" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G127" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L127" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E128" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G128" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L128" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B129" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F129" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G129" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L129" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>beeping</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J130" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>ESC</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E131" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G119" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I119" t="b">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K119" t="b">
-        <v>1</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>5</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>After</t>
-        </is>
-      </c>
-      <c r="D120" t="n">
-        <v>9</v>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G120" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K120" t="b">
-        <v>1</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>5</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>powering</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>10</v>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K121" t="b">
-        <v>1</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>5</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>11</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G122" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I122" t="b">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K122" t="b">
-        <v>1</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>5</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
-        <v>12</v>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>5</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>aircraft,</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>13</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>5</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>replace</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
-        <v>14</v>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K125" t="b">
-        <v>1</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>5</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
-        <v>15</v>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I126" t="b">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K126" t="b">
-        <v>1</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>5</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>propeller</t>
-        </is>
-      </c>
-      <c r="D127" t="n">
-        <v>16</v>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G127" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I127" t="b">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K127" t="b">
-        <v>1</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>5</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
-      <c r="D128" t="n">
-        <v>17</v>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G128" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I128" t="b">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K128" t="b">
-        <v>1</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>5</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D129" t="n">
-        <v>18</v>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G129" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I129" t="b">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K129" t="b">
-        <v>1</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>5</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>beeping</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
-        <v>19</v>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G130" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I130" t="b">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K130" t="b">
-        <v>1</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>5</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="D131" t="n">
-        <v>20</v>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G131" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K131" t="b">
-        <v>1</v>
-      </c>
-      <c r="L131" t="inlineStr">
+      <c r="F131" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G131" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -7285,7 +7285,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G132" t="b">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7678,104 +7678,104 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
+      <c r="A140" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B140" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C140" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D140" t="n">
-        <v>0</v>
-      </c>
-      <c r="E140" t="inlineStr">
+      <c r="D140" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="F140" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G140" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" t="inlineStr">
+      <c r="G140" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I140" t="b">
-        <v>1</v>
-      </c>
-      <c r="J140" t="inlineStr">
+      <c r="I140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>abnormal</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G141" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K140" t="b">
-        <v>1</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>6</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>abnormal</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
-        <v>1</v>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G141" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I141" t="b">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K141" t="b">
-        <v>1</v>
-      </c>
-      <c r="L141" t="inlineStr">
+      <c r="I141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J141" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -7805,7 +7805,7 @@
       </c>
       <c r="F142" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G142" s="2" t="b">
@@ -7817,11 +7817,11 @@
         </is>
       </c>
       <c r="I142" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K142" s="2" t="b">
@@ -7857,7 +7857,7 @@
       </c>
       <c r="F143" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G143" s="2" t="b">
@@ -7881,7 +7881,7 @@
       </c>
       <c r="L143" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8458,884 +8458,884 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="n">
+      <c r="A155" t="n">
         <v>6</v>
       </c>
-      <c r="B155" s="2" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C155" s="2" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>The</t>
         </is>
       </c>
-      <c r="D155" s="2" t="n">
+      <c r="D155" t="n">
         <v>15</v>
       </c>
-      <c r="E155" s="2" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F155" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G155" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H155" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I155" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J155" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K155" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L155" s="2" t="inlineStr">
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G155" t="b">
+        <v>1</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I155" t="b">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K155" t="b">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>6</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>ground</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>16</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G156" t="b">
+        <v>1</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I156" t="b">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K156" t="b">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>6</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>or</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>17</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G157" t="b">
+        <v>1</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I157" t="b">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K157" t="b">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>6</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>walls</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>18</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G158" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I158" t="b">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>6</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>may</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>19</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G159" t="b">
+        <v>1</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I159" t="b">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>6</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>contain</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>20</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G160" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I160" t="b">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>6</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>metal</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>21</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G161" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I161" t="b">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>6</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Move</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>22</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G162" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I162" t="b">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
+    <row r="163">
+      <c r="A163" t="n">
         <v>6</v>
       </c>
-      <c r="B156" s="2" t="inlineStr">
+      <c r="B163" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C156" s="2" t="inlineStr">
-        <is>
-          <t>ground</t>
-        </is>
-      </c>
-      <c r="D156" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E156" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F156" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G156" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H156" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I156" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J156" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K156" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L156" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>away</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>23</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G163" t="b">
+        <v>1</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I163" t="b">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K163" t="b">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
         <v>6</v>
       </c>
-      <c r="B157" s="2" t="inlineStr">
+      <c r="B164" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C157" s="2" t="inlineStr">
-        <is>
-          <t>or</t>
-        </is>
-      </c>
-      <c r="D157" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="E157" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F157" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G157" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H157" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I157" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J157" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K157" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L157" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>from</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>24</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G164" t="b">
+        <v>1</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I164" t="b">
+        <v>1</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K164" t="b">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
         <v>6</v>
       </c>
-      <c r="B158" s="2" t="inlineStr">
+      <c r="B165" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C158" s="2" t="inlineStr">
-        <is>
-          <t>walls</t>
-        </is>
-      </c>
-      <c r="D158" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E158" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F158" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G158" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H158" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I158" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J158" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K158" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L158" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>sources</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>25</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G165" t="b">
+        <v>1</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I165" t="b">
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K165" t="b">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
         <v>6</v>
       </c>
-      <c r="B159" s="2" t="inlineStr">
+      <c r="B166" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C159" s="2" t="inlineStr">
-        <is>
-          <t>may</t>
-        </is>
-      </c>
-      <c r="D159" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E159" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F159" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G159" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H159" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I159" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J159" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K159" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L159" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>26</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G166" t="b">
+        <v>1</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I166" t="b">
+        <v>1</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K166" t="b">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
         <v>6</v>
       </c>
-      <c r="B160" s="2" t="inlineStr">
+      <c r="B167" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C160" s="2" t="inlineStr">
-        <is>
-          <t>contain</t>
-        </is>
-      </c>
-      <c r="D160" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E160" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F160" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G160" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H160" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I160" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J160" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K160" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L160" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>interference</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>27</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G167" t="b">
+        <v>1</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I167" t="b">
+        <v>1</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K167" t="b">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
         <v>6</v>
       </c>
-      <c r="B161" s="2" t="inlineStr">
+      <c r="B168" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C161" s="2" t="inlineStr">
-        <is>
-          <t>metal</t>
-        </is>
-      </c>
-      <c r="D161" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="E161" s="2" t="inlineStr">
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>28</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G168" t="b">
+        <v>1</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I168" t="b">
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K168" t="b">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>6</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>attempting</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>29</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G169" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I169" t="b">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K169" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>6</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>flight</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>30</v>
+      </c>
+      <c r="E170" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F161" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G161" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H161" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I161" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J161" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K161" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L161" s="2" t="inlineStr">
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G170" t="b">
+        <v>1</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I170" t="b">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K170" t="b">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
+    <row r="171">
+      <c r="A171" t="n">
         <v>6</v>
       </c>
-      <c r="B162" s="2" t="inlineStr">
+      <c r="B171" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C162" s="2" t="inlineStr">
-        <is>
-          <t>Move</t>
-        </is>
-      </c>
-      <c r="D162" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="E162" s="2" t="inlineStr">
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2.</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>31</v>
+      </c>
+      <c r="E171" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F162" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G162" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H162" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I162" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J162" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K162" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L162" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B163" s="2" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C163" s="2" t="inlineStr">
-        <is>
-          <t>away</t>
-        </is>
-      </c>
-      <c r="D163" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="E163" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F163" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G163" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H163" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I163" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J163" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K163" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L163" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B164" s="2" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C164" s="2" t="inlineStr">
-        <is>
-          <t>from</t>
-        </is>
-      </c>
-      <c r="D164" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="E164" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F164" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G164" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H164" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I164" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J164" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K164" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L164" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B165" s="2" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C165" s="2" t="inlineStr">
-        <is>
-          <t>sources</t>
-        </is>
-      </c>
-      <c r="D165" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="E165" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F165" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G165" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H165" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I165" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J165" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K165" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L165" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B166" s="2" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C166" s="2" t="inlineStr">
-        <is>
-          <t>of</t>
-        </is>
-      </c>
-      <c r="D166" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="E166" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F166" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G166" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H166" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I166" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J166" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K166" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L166" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B167" s="2" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C167" s="2" t="inlineStr">
-        <is>
-          <t>interference</t>
-        </is>
-      </c>
-      <c r="D167" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="E167" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F167" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G167" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H167" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I167" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J167" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K167" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L167" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B168" s="2" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C168" s="2" t="inlineStr">
-        <is>
-          <t>before</t>
-        </is>
-      </c>
-      <c r="D168" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="E168" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F168" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G168" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H168" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I168" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J168" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K168" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L168" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B169" s="2" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C169" s="2" t="inlineStr">
-        <is>
-          <t>attempting</t>
-        </is>
-      </c>
-      <c r="D169" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="E169" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F169" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G169" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H169" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I169" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J169" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K169" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L169" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B170" s="2" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C170" s="2" t="inlineStr">
-        <is>
-          <t>flight</t>
-        </is>
-      </c>
-      <c r="D170" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="E170" s="2" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F170" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G170" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H170" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I170" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J170" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K170" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L170" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B171" s="2" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C171" s="2" t="inlineStr">
-        <is>
-          <t>2.</t>
-        </is>
-      </c>
-      <c r="D171" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="E171" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F171" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G171" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H171" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I171" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K171" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L171" s="2" t="inlineStr">
+      <c r="G171" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I171" t="b">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K171" t="b">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_E</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/123/word_level_predictions_123.xlsx
@@ -866,312 +866,312 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" t="n">
         <v>7</v>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" t="n">
         <v>8</v>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Disabled</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" t="n">
         <v>9</v>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="A12" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" t="n">
         <v>10</v>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>gear</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" t="n">
         <v>11</v>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="A14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>lowered</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" t="n">
         <v>12</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -1386,676 +1386,676 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Propeller</t>
         </is>
       </c>
-      <c r="D19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>rotating</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>too</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" t="n">
         <v>2</v>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>fast</t>
         </is>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" t="n">
         <v>3</v>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Wind</t>
         </is>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" t="n">
         <v>4</v>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>resistance</t>
         </is>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" t="n">
         <v>5</v>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>affected</t>
         </is>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" t="n">
         <v>6</v>
       </c>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" t="n">
         <v>7</v>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G26" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" t="n">
         <v>8</v>
       </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2" t="inlineStr">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" t="n">
         <v>9</v>
       </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" t="n">
         <v>10</v>
       </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2" t="inlineStr">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>land</t>
         </is>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" t="n">
         <v>11</v>
       </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2" t="inlineStr">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>promptly</t>
         </is>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" t="n">
         <v>12</v>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2" t="inlineStr">
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G77" s="2" t="b">
@@ -4477,7 +4477,7 @@
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G78" s="2" t="b">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="F100" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G100" s="2" t="b">
@@ -5645,7 +5645,7 @@
       </c>
       <c r="L100" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="F101" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G101" s="2" t="b">
@@ -5697,7 +5697,7 @@
       </c>
       <c r="L101" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6170,1092 +6170,1092 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" t="n">
         <v>5</v>
       </c>
-      <c r="B111" s="2" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C111" s="2" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>Motor</t>
         </is>
       </c>
-      <c r="D111" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" s="2" t="inlineStr">
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F111" s="2" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G111" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" s="2" t="inlineStr">
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L111" s="2" t="inlineStr">
+      <c r="I111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K111" t="b">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" t="n">
         <v>5</v>
       </c>
-      <c r="B112" s="2" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C112" s="2" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="D112" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E112" s="2" t="inlineStr">
+      <c r="D112" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F112" s="2" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G112" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" s="2" t="inlineStr">
+      <c r="G112" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L112" s="2" t="inlineStr">
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K112" t="b">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n">
+      <c r="A113" t="n">
         <v>5</v>
       </c>
-      <c r="B113" s="2" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C113" s="2" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D113" s="2" t="n">
+      <c r="D113" t="n">
         <v>2</v>
       </c>
-      <c r="E113" s="2" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F113" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G113" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H113" s="2" t="inlineStr">
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G113" t="b">
+        <v>1</v>
+      </c>
+      <c r="H113" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I113" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J113" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K113" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L113" s="2" t="inlineStr">
+      <c r="I113" t="b">
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K113" t="b">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>5</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Land</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>3</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G114" t="b">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I114" t="b">
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K114" t="b">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>5</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>or</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>4</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G115" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I115" t="b">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K115" t="b">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>5</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>return</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>5</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G116" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I116" t="b">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K116" t="b">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>5</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>6</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G117" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I117" t="b">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K117" t="b">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>5</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>7</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G118" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I118" t="b">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K118" t="b">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>5</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>promptly</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>8</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I119" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K119" t="b">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    <row r="120">
+      <c r="A120" t="n">
         <v>5</v>
       </c>
-      <c r="B114" s="2" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C114" s="2" t="inlineStr">
-        <is>
-          <t>Land</t>
-        </is>
-      </c>
-      <c r="D114" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E114" s="2" t="inlineStr">
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>After</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>9</v>
+      </c>
+      <c r="E120" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F114" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G114" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H114" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I114" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J114" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K114" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L114" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
         <v>5</v>
       </c>
-      <c r="B115" s="2" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C115" s="2" t="inlineStr">
-        <is>
-          <t>or</t>
-        </is>
-      </c>
-      <c r="D115" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E115" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F115" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G115" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L115" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>powering</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>10</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
         <v>5</v>
       </c>
-      <c r="B116" s="2" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C116" s="2" t="inlineStr">
-        <is>
-          <t>return</t>
-        </is>
-      </c>
-      <c r="D116" s="2" t="n">
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>11</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G122" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
         <v>5</v>
       </c>
-      <c r="E116" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F116" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G116" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L116" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>12</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
         <v>5</v>
       </c>
-      <c r="B117" s="2" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C117" s="2" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D117" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E117" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F117" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G117" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H117" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L117" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>aircraft,</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>13</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
         <v>5</v>
       </c>
-      <c r="B118" s="2" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C118" s="2" t="inlineStr">
-        <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="D118" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E118" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F118" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G118" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L118" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>replace</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>14</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
         <v>5</v>
       </c>
-      <c r="B119" s="2" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C119" s="2" t="inlineStr">
-        <is>
-          <t>promptly</t>
-        </is>
-      </c>
-      <c r="D119" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E119" s="2" t="inlineStr">
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>15</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K126" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>5</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>propeller</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>16</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>5</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>17</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G128" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>5</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>18</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G129" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I129" t="b">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>5</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>beeping</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>19</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I130" t="b">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>5</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>ESC</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>20</v>
+      </c>
+      <c r="E131" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F119" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G119" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L119" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B120" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C120" s="2" t="inlineStr">
-        <is>
-          <t>After</t>
-        </is>
-      </c>
-      <c r="D120" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E120" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F120" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G120" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L120" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B121" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C121" s="2" t="inlineStr">
-        <is>
-          <t>powering</t>
-        </is>
-      </c>
-      <c r="D121" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E121" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F121" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L121" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B122" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C122" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D122" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E122" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F122" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G122" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L122" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B123" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C123" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D123" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E123" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F123" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B124" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C124" s="2" t="inlineStr">
-        <is>
-          <t>aircraft,</t>
-        </is>
-      </c>
-      <c r="D124" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E124" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F124" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B125" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C125" s="2" t="inlineStr">
-        <is>
-          <t>replace</t>
-        </is>
-      </c>
-      <c r="D125" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E125" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B126" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C126" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D126" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L126" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B127" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C127" s="2" t="inlineStr">
-        <is>
-          <t>propeller</t>
-        </is>
-      </c>
-      <c r="D127" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E127" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F127" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G127" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L127" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B128" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C128" s="2" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
-      <c r="D128" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="E128" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F128" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G128" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L128" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B129" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C129" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D129" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E129" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F129" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G129" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L129" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B130" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C130" s="2" t="inlineStr">
-        <is>
-          <t>beeping</t>
-        </is>
-      </c>
-      <c r="D130" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E130" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F130" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G130" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L130" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B131" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C131" s="2" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="D131" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E131" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F131" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G131" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L131" s="2" t="inlineStr">
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -7285,7 +7285,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G132" t="b">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -7678,104 +7678,104 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
+      <c r="A140" t="n">
         <v>6</v>
       </c>
-      <c r="B140" s="2" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C140" s="2" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D140" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E140" s="2" t="inlineStr">
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F140" s="2" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G140" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" s="2" t="inlineStr">
+      <c r="G140" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L140" s="2" t="inlineStr">
+      <c r="I140" t="b">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
+      <c r="A141" t="n">
         <v>6</v>
       </c>
-      <c r="B141" s="2" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C141" s="2" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>abnormal</t>
         </is>
       </c>
-      <c r="D141" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E141" s="2" t="inlineStr">
+      <c r="D141" t="n">
+        <v>1</v>
+      </c>
+      <c r="E141" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F141" s="2" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G141" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" s="2" t="inlineStr">
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L141" s="2" t="inlineStr">
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -7805,7 +7805,7 @@
       </c>
       <c r="F142" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G142" s="2" t="b">
@@ -7817,11 +7817,11 @@
         </is>
       </c>
       <c r="I142" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K142" s="2" t="b">
@@ -7857,7 +7857,7 @@
       </c>
       <c r="F143" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G143" s="2" t="b">
@@ -7881,7 +7881,7 @@
       </c>
       <c r="L143" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -8458,884 +8458,884 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n">
+      <c r="A155" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B155" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C155" s="2" t="inlineStr">
         <is>
           <t>The</t>
         </is>
       </c>
-      <c r="D155" t="n">
+      <c r="D155" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="E155" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="F155" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G155" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H155" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I155" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J155" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K155" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L155" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="inlineStr">
+        <is>
+          <t>ground</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E156" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F156" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G156" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H156" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I156" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J156" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K156" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L156" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B157" s="2" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C157" s="2" t="inlineStr">
+        <is>
+          <t>or</t>
+        </is>
+      </c>
+      <c r="D157" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E157" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F157" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G157" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H157" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I157" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J157" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K157" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L157" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
+          <t>walls</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E158" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F158" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G158" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I158" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J158" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K158" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L158" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B159" s="2" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C159" s="2" t="inlineStr">
+        <is>
+          <t>may</t>
+        </is>
+      </c>
+      <c r="D159" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E159" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F159" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G159" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H159" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I159" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J159" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K159" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L159" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="inlineStr">
+        <is>
+          <t>contain</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E160" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F160" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G160" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I160" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J160" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K160" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L160" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B161" s="2" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C161" s="2" t="inlineStr">
+        <is>
+          <t>metal</t>
+        </is>
+      </c>
+      <c r="D161" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E161" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F161" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G161" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I161" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J161" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K161" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L161" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="inlineStr">
+        <is>
+          <t>Move</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E162" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G155" t="b">
-        <v>1</v>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I155" t="b">
-        <v>1</v>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K155" t="b">
-        <v>1</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
+      <c r="F162" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G162" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I162" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J162" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K162" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L162" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="B163" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>ground</t>
-        </is>
-      </c>
-      <c r="D156" t="n">
-        <v>16</v>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G156" t="b">
-        <v>1</v>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I156" t="b">
-        <v>1</v>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K156" t="b">
-        <v>1</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
+      <c r="C163" s="2" t="inlineStr">
+        <is>
+          <t>away</t>
+        </is>
+      </c>
+      <c r="D163" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E163" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F163" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G163" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H163" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I163" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J163" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K163" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L163" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B164" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>or</t>
-        </is>
-      </c>
-      <c r="D157" t="n">
-        <v>17</v>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G157" t="b">
-        <v>1</v>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I157" t="b">
-        <v>1</v>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K157" t="b">
-        <v>1</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
+      <c r="C164" s="2" t="inlineStr">
+        <is>
+          <t>from</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E164" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F164" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G164" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H164" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I164" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J164" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K164" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L164" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B165" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>walls</t>
-        </is>
-      </c>
-      <c r="D158" t="n">
-        <v>18</v>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G158" t="b">
-        <v>1</v>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I158" t="b">
-        <v>1</v>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K158" t="b">
-        <v>1</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
+      <c r="C165" s="2" t="inlineStr">
+        <is>
+          <t>sources</t>
+        </is>
+      </c>
+      <c r="D165" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="E165" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F165" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G165" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H165" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I165" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J165" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K165" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L165" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B166" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>may</t>
-        </is>
-      </c>
-      <c r="D159" t="n">
-        <v>19</v>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G159" t="b">
-        <v>1</v>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I159" t="b">
-        <v>1</v>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K159" t="b">
-        <v>1</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
+      <c r="C166" s="2" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="E166" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F166" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G166" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H166" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I166" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J166" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K166" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L166" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B167" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>contain</t>
-        </is>
-      </c>
-      <c r="D160" t="n">
-        <v>20</v>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G160" t="b">
-        <v>1</v>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I160" t="b">
-        <v>1</v>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K160" t="b">
-        <v>1</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
+      <c r="C167" s="2" t="inlineStr">
+        <is>
+          <t>interference</t>
+        </is>
+      </c>
+      <c r="D167" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="E167" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F167" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G167" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H167" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I167" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J167" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K167" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L167" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B168" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>metal</t>
-        </is>
-      </c>
-      <c r="D161" t="n">
-        <v>21</v>
-      </c>
-      <c r="E161" t="inlineStr">
+      <c r="C168" s="2" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E168" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F168" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G168" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H168" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I168" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J168" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K168" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L168" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B169" s="2" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C169" s="2" t="inlineStr">
+        <is>
+          <t>attempting</t>
+        </is>
+      </c>
+      <c r="D169" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="E169" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F169" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G169" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I169" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J169" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K169" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L169" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="inlineStr">
+        <is>
+          <t>flight</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E170" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G161" t="b">
-        <v>1</v>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I161" t="b">
-        <v>1</v>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K161" t="b">
-        <v>1</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
+      <c r="F170" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G170" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H170" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I170" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J170" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K170" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L170" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B171" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Move</t>
-        </is>
-      </c>
-      <c r="D162" t="n">
-        <v>22</v>
-      </c>
-      <c r="E162" t="inlineStr">
+      <c r="C171" s="2" t="inlineStr">
+        <is>
+          <t>2.</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="E171" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G162" t="b">
-        <v>1</v>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I162" t="b">
-        <v>1</v>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K162" t="b">
-        <v>1</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>6</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>away</t>
-        </is>
-      </c>
-      <c r="D163" t="n">
-        <v>23</v>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G163" t="b">
-        <v>1</v>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I163" t="b">
-        <v>1</v>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K163" t="b">
-        <v>1</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>6</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>from</t>
-        </is>
-      </c>
-      <c r="D164" t="n">
-        <v>24</v>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G164" t="b">
-        <v>1</v>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I164" t="b">
-        <v>1</v>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K164" t="b">
-        <v>1</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>6</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>sources</t>
-        </is>
-      </c>
-      <c r="D165" t="n">
-        <v>25</v>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G165" t="b">
-        <v>1</v>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I165" t="b">
-        <v>1</v>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K165" t="b">
-        <v>1</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>6</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>of</t>
-        </is>
-      </c>
-      <c r="D166" t="n">
-        <v>26</v>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G166" t="b">
-        <v>1</v>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I166" t="b">
-        <v>1</v>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K166" t="b">
-        <v>1</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>6</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>interference</t>
-        </is>
-      </c>
-      <c r="D167" t="n">
-        <v>27</v>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G167" t="b">
-        <v>1</v>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I167" t="b">
-        <v>1</v>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K167" t="b">
-        <v>1</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>6</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>before</t>
-        </is>
-      </c>
-      <c r="D168" t="n">
-        <v>28</v>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G168" t="b">
-        <v>1</v>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I168" t="b">
-        <v>1</v>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K168" t="b">
-        <v>1</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>6</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>attempting</t>
-        </is>
-      </c>
-      <c r="D169" t="n">
-        <v>29</v>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G169" t="b">
-        <v>1</v>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I169" t="b">
-        <v>1</v>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K169" t="b">
-        <v>1</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>6</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>flight</t>
-        </is>
-      </c>
-      <c r="D170" t="n">
-        <v>30</v>
-      </c>
-      <c r="E170" t="inlineStr">
+      <c r="F171" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G170" t="b">
-        <v>1</v>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I170" t="b">
-        <v>1</v>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K170" t="b">
-        <v>1</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>6</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>2.</t>
-        </is>
-      </c>
-      <c r="D171" t="n">
-        <v>31</v>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G171" t="b">
-        <v>1</v>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I171" t="b">
-        <v>1</v>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K171" t="b">
-        <v>1</v>
-      </c>
-      <c r="L171" t="inlineStr">
+      <c r="G171" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I171" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J171" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K171" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L171" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_E</t>
         </is>
